--- a/data/trans_bre/IP42B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP42B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 12,37</t>
+          <t>-7,4; 11,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 11,87</t>
+          <t>-15,15; 12,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 0,33</t>
+          <t>-19,84; 0,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 135,19</t>
+          <t>-63,54; 159,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 50,42</t>
+          <t>-93,64; 60,98</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 6,93</t>
+          <t>-5,77; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 14,12</t>
+          <t>-8,12; 13,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 10,92</t>
+          <t>-2,62; 9,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 688,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 134,97</t>
+          <t>-42,32; 133,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,35; 641,36</t>
+          <t>-49,33; 554,06</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 16,73</t>
+          <t>-19,07; 16,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 8,37</t>
+          <t>-16,78; 10,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 9,71</t>
+          <t>-5,86; 10,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-80,27; 195,95</t>
+          <t>-81,03; 174,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,01; 119,3</t>
+          <t>-78,9; 128,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-73,39; 453,16</t>
+          <t>-69,31; 397,46</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 16,73</t>
+          <t>-0,84; 16,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 20,8</t>
+          <t>-4,44; 19,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 14,75</t>
+          <t>-5,85; 13,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 923,35</t>
+          <t>-29,98; 789,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 480,35</t>
+          <t>-37,26; 467,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 298,63</t>
+          <t>-45,22; 251,28</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,82</t>
+          <t>-3,07; 6,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 7,97</t>
+          <t>-4,12; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 5,54</t>
+          <t>-3,38; 4,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 165,22</t>
+          <t>-34,47; 136,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 75,05</t>
+          <t>-26,22; 78,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 92,01</t>
+          <t>-34,48; 79,35</t>
         </is>
       </c>
     </row>
